--- a/Well-Being/Documentação/ProductBacklog.xlsx
+++ b/Well-Being/Documentação/ProductBacklog.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C93ECAB-3D50-4E5F-86CF-1729D062B159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Djego\Documents\ProjetoIndividual\Well-Being\Documentação\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE274298-76F3-43D4-9CD2-8EC5DAB6EDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -139,13 +144,16 @@
   </si>
   <si>
     <t>Criação do código do banco de dados de acordo com a modelagem anteriormente feita</t>
+  </si>
+  <si>
+    <t>Planilha de riscos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -223,15 +231,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,6 +307,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,13 +654,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
@@ -598,238 +668,276 @@
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="72.75">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="2:6" ht="66" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" ht="73.5" customHeight="1">
-      <c r="B6" s="2" t="s">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" ht="51.75" customHeight="1">
-      <c r="B7" s="2" t="s">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" ht="87.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" ht="37.5" customHeight="1">
-      <c r="B9" s="2" t="s">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" ht="45.75" customHeight="1">
-      <c r="B10" s="2" t="s">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" ht="46.5" customHeight="1">
-      <c r="B11" s="2" t="s">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" ht="41.25" customHeight="1">
-      <c r="B12" s="2" t="s">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" ht="75.75" customHeight="1">
-      <c r="B13" s="2" t="s">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" ht="87" customHeight="1">
-      <c r="B14" s="3" t="s">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" ht="96" customHeight="1">
-      <c r="B15" s="2" t="s">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:6" ht="65.25" customHeight="1">
-      <c r="B16" s="2" t="s">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" ht="72.75">
-      <c r="B17" s="2" t="s">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
